--- a/Code/Results/Cases/Case_1_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039437683</v>
+        <v>0.2159311196958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808359856</v>
+        <v>0.00136281687266937</v>
       </c>
       <c r="E2">
-        <v>1.567431669290585</v>
+        <v>0.4336984297763706</v>
       </c>
       <c r="F2">
-        <v>1.788824380448091</v>
+        <v>0.7160575709075232</v>
       </c>
       <c r="G2">
-        <v>0.0007158969819684221</v>
+        <v>0.002324725457951165</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.3757315010515043</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282819</v>
+        <v>1.538965158849294</v>
       </c>
       <c r="O2">
-        <v>5.977551973917684</v>
+        <v>2.355210718842727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088301562</v>
+        <v>0.1913949238933697</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280078108</v>
+        <v>0.001187382742090293</v>
       </c>
       <c r="E3">
-        <v>1.336160509687204</v>
+        <v>0.3778594790115903</v>
       </c>
       <c r="F3">
-        <v>1.540579415516149</v>
+        <v>0.6567163053088905</v>
       </c>
       <c r="G3">
-        <v>0.0007235385202459787</v>
+        <v>0.002329461130050568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.3656238581545637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658567</v>
+        <v>1.440536212657179</v>
       </c>
       <c r="O3">
-        <v>5.144303722186692</v>
+        <v>2.156718067768907</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571675</v>
+        <v>0.1762869034279646</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412869037</v>
+        <v>0.001080080274057593</v>
       </c>
       <c r="E4">
-        <v>1.19836875584835</v>
+        <v>0.3437100912600357</v>
       </c>
       <c r="F4">
-        <v>1.391567920974296</v>
+        <v>0.6207120828670867</v>
       </c>
       <c r="G4">
-        <v>0.0007283324737500999</v>
+        <v>0.002332519531335734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4362154386401045</v>
+        <v>0.3596127975951688</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>1.380350891855613</v>
       </c>
       <c r="O4">
-        <v>4.644473965290103</v>
+        <v>2.036265997455075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727191212</v>
+        <v>0.1701201473106835</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140479021</v>
+        <v>0.001036432189167158</v>
       </c>
       <c r="E5">
-        <v>1.143099556680454</v>
+        <v>0.329825076174572</v>
       </c>
       <c r="F5">
-        <v>1.331578396996946</v>
+        <v>0.6061468742205847</v>
       </c>
       <c r="G5">
-        <v>0.000730313868940828</v>
+        <v>0.002333803886885216</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504312</v>
+        <v>0.3572128864359954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651979</v>
+        <v>1.355891405433653</v>
       </c>
       <c r="O5">
-        <v>4.443320970959178</v>
+        <v>1.987532592803802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885599239</v>
+        <v>0.1690955695415823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621664396</v>
+        <v>0.001029188458627317</v>
       </c>
       <c r="E6">
-        <v>1.133970667797598</v>
+        <v>0.3275212721868144</v>
       </c>
       <c r="F6">
-        <v>1.321658118355685</v>
+        <v>0.6037347334826251</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175805448</v>
+        <v>0.002334019454337199</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.3568173988915788</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>1.351834048475041</v>
       </c>
       <c r="O6">
-        <v>4.410060780376682</v>
+        <v>1.979461519004303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4593053524216657</v>
+        <v>0.1762037765295901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861112125</v>
+        <v>0.001079491335964633</v>
       </c>
       <c r="E7">
-        <v>1.197620022311426</v>
+        <v>0.3435227109891912</v>
       </c>
       <c r="F7">
-        <v>1.390756064626686</v>
+        <v>0.6205152211821883</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801612075</v>
+        <v>0.002332536698358234</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4360939092483918</v>
+        <v>0.3595802297560198</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768425</v>
+        <v>1.38002074861987</v>
       </c>
       <c r="O7">
-        <v>4.641751433936349</v>
+        <v>2.035607345351195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775169</v>
+        <v>0.2074802658001431</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231021383</v>
+        <v>0.001302225393729373</v>
       </c>
       <c r="E8">
-        <v>1.486702222600158</v>
+        <v>0.4144150822294819</v>
       </c>
       <c r="F8">
-        <v>1.702442448580072</v>
+        <v>0.6955060775010651</v>
       </c>
       <c r="G8">
-        <v>0.0007185119886447069</v>
+        <v>0.002326327130626193</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798765</v>
+        <v>0.3722062484302811</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>1.504976964632107</v>
       </c>
       <c r="O8">
-        <v>5.687526064025633</v>
+        <v>2.286471316272696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226402119</v>
+        <v>0.2684501888315936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958756643</v>
+        <v>0.001743495443395915</v>
       </c>
       <c r="E9">
-        <v>2.096339606710984</v>
+        <v>0.5546583365363915</v>
       </c>
       <c r="F9">
-        <v>2.347128541868855</v>
+        <v>0.8460728912957052</v>
       </c>
       <c r="G9">
-        <v>0.0006998995819415466</v>
+        <v>0.002315339238254839</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5754683679896999</v>
+        <v>0.3984893586955494</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066558</v>
+        <v>1.751860150726543</v>
       </c>
       <c r="O9">
-        <v>7.85416229861795</v>
+        <v>2.79001036887513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8731587267203054</v>
+        <v>0.3129948669844396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081228981</v>
+        <v>0.002072145766488731</v>
       </c>
       <c r="E10">
-        <v>2.586060833366673</v>
+        <v>0.658652049917535</v>
       </c>
       <c r="F10">
-        <v>2.851605898883435</v>
+        <v>0.9589651656520459</v>
       </c>
       <c r="G10">
-        <v>0.0006864679269870018</v>
+        <v>0.002307982165642218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.4186982167615625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.236894622658752</v>
+        <v>1.93419659562025</v>
       </c>
       <c r="O10">
-        <v>9.553113749089505</v>
+        <v>3.167490004210322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874919197</v>
+        <v>0.33319936175468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520338237</v>
+        <v>0.002223006803760086</v>
       </c>
       <c r="E11">
-        <v>2.822475958476986</v>
+        <v>0.7062161564137739</v>
       </c>
       <c r="F11">
-        <v>3.090660193508597</v>
+        <v>1.010845266279489</v>
       </c>
       <c r="G11">
-        <v>0.0006803599163876365</v>
+        <v>0.002304788697644411</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6772639329326324</v>
+        <v>0.4280806917633839</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391415</v>
+        <v>2.017317443662478</v>
       </c>
       <c r="O11">
-        <v>10.35932114213153</v>
+        <v>3.340953389518518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370860217</v>
+        <v>0.3408412057247006</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01237899073032622</v>
+        <v>0.002280360919026947</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>0.7242680764979781</v>
       </c>
       <c r="F12">
-        <v>3.182852286963396</v>
+        <v>1.03056856590527</v>
       </c>
       <c r="G12">
-        <v>0.0006780420884715859</v>
+        <v>0.00230360130780261</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920322</v>
+        <v>0.4316602591565939</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>2.048815004509549</v>
       </c>
       <c r="O12">
-        <v>10.67043865151464</v>
+        <v>3.406898250946483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991390504</v>
+        <v>0.3391958157679937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534360415</v>
+        <v>0.002267998111934233</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.720378418342051</v>
       </c>
       <c r="F13">
-        <v>3.162917655983051</v>
+        <v>1.026317325067765</v>
       </c>
       <c r="G13">
-        <v>0.0006785415835265581</v>
+        <v>0.00230385606152078</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6868178671706033</v>
+        <v>0.4308881605543888</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066384986</v>
+        <v>2.042030543333738</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
+        <v>3.392684256368284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428265841</v>
+        <v>0.3338282482071406</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160192969</v>
+        <v>0.00222772064371668</v>
       </c>
       <c r="E14">
-        <v>2.82999038538928</v>
+        <v>0.7077004683360144</v>
       </c>
       <c r="F14">
-        <v>3.098209602540265</v>
+        <v>1.012466350817789</v>
       </c>
       <c r="G14">
-        <v>0.0006801693578423061</v>
+        <v>0.002304690571907265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6782649886334866</v>
+        <v>0.4283746547068787</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738564</v>
+        <v>2.019908357050213</v>
       </c>
       <c r="O14">
-        <v>10.38479363018217</v>
+        <v>3.346373501059304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807037658</v>
+        <v>0.3305392456628908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091435716</v>
+        <v>0.002203079946879072</v>
       </c>
       <c r="E15">
-        <v>2.790797357017965</v>
+        <v>0.6999402271471666</v>
       </c>
       <c r="F15">
-        <v>3.058800812428132</v>
+        <v>1.003992371776604</v>
       </c>
       <c r="G15">
-        <v>0.0006811656134803101</v>
+        <v>0.002305204582768017</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669278</v>
+        <v>0.4268385096919047</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433339</v>
+        <v>2.006360570313291</v>
       </c>
       <c r="O15">
-        <v>10.25183258971805</v>
+        <v>3.318040639829917</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517122486</v>
+        <v>0.3116732098856971</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331135865</v>
+        <v>0.002062316590961899</v>
       </c>
       <c r="E16">
-        <v>2.57092413298578</v>
+        <v>0.655549089093725</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>0.9555854069586189</v>
       </c>
       <c r="G16">
-        <v>0.0006868667236993309</v>
+        <v>0.002308193939223566</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6431340378036907</v>
+        <v>0.4180888088535895</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171125</v>
+        <v>1.928767661017872</v>
       </c>
       <c r="O16">
-        <v>9.501180815391081</v>
+        <v>3.15618949106215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836811408</v>
+        <v>0.3000838993125114</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818481715</v>
+        <v>0.001976332213386556</v>
       </c>
       <c r="E17">
-        <v>2.439845517651122</v>
+        <v>0.6283848123191405</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>0.9260251098173171</v>
       </c>
       <c r="G17">
-        <v>0.000690361341654847</v>
+        <v>0.002310066979291825</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6248725872898646</v>
+        <v>0.4127692216154415</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478607</v>
+        <v>1.88120914429345</v>
       </c>
       <c r="O17">
-        <v>9.049894410862862</v>
+        <v>3.057351167739682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528253866</v>
+        <v>0.2934125106850161</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00951498039731824</v>
+        <v>0.001927002019733948</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.6127846016899383</v>
       </c>
       <c r="F18">
-        <v>2.626135773823904</v>
+        <v>0.9090720897889923</v>
       </c>
       <c r="G18">
-        <v>0.0006923719132447215</v>
+        <v>0.00231115873986465</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.4097273953840173</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444542</v>
+        <v>1.85387144156806</v>
       </c>
       <c r="O18">
-        <v>8.793393365344173</v>
+        <v>3.000665896692624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263246715</v>
+        <v>0.2911527646049308</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476300854</v>
+        <v>0.001910320321501402</v>
       </c>
       <c r="E19">
-        <v>2.34079917854109</v>
+        <v>0.6075066487272522</v>
       </c>
       <c r="F19">
-        <v>2.600497178597323</v>
+        <v>0.9033404933890949</v>
       </c>
       <c r="G19">
-        <v>0.0006930528959440128</v>
+        <v>0.002311530874994851</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.610856921260563</v>
+        <v>0.4087005711172083</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769551</v>
+        <v>1.844618345498787</v>
       </c>
       <c r="O19">
-        <v>8.70704497499878</v>
+        <v>2.981501180670932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912795963</v>
+        <v>0.30131817768563</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009957453279048067</v>
+        <v>0.001985472159233836</v>
       </c>
       <c r="E20">
-        <v>2.453666606034687</v>
+        <v>0.6312739907922804</v>
       </c>
       <c r="F20">
-        <v>2.716444424735158</v>
+        <v>0.9291667394193155</v>
       </c>
       <c r="G20">
-        <v>0.000689989309964782</v>
+        <v>0.002309866097720437</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769241</v>
+        <v>0.4133336567285681</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229073</v>
+        <v>1.886270128092008</v>
       </c>
       <c r="O20">
-        <v>9.09761035659443</v>
+        <v>3.067855660969485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823937807</v>
+        <v>0.3354050867557703</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752403384</v>
+        <v>0.002239544716820419</v>
       </c>
       <c r="E21">
-        <v>2.848874331676157</v>
+        <v>0.7114231643078455</v>
       </c>
       <c r="F21">
-        <v>3.117168067285291</v>
+        <v>1.016532600446681</v>
       </c>
       <c r="G21">
-        <v>0.0006796914192125105</v>
+        <v>0.002304444862530205</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6807759445216774</v>
+        <v>0.429112214418673</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>2.026405625114307</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
+        <v>3.359969033151685</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205384</v>
+        <v>0.3576291578720543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510470995227</v>
+        <v>0.002406930069309254</v>
       </c>
       <c r="E22">
-        <v>3.12174648462593</v>
+        <v>0.7640425772889614</v>
       </c>
       <c r="F22">
-        <v>3.388961998781213</v>
+        <v>1.074083505283141</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473793775</v>
+        <v>0.002301029401395692</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7163074138430972</v>
+        <v>0.4395793436413911</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152695</v>
+        <v>2.118115898853603</v>
       </c>
       <c r="O22">
-        <v>11.36640331357137</v>
+        <v>3.552389396738079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862101912</v>
+        <v>0.3457728835226135</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01270784654407109</v>
+        <v>0.00231746072000405</v>
       </c>
       <c r="E23">
-        <v>2.974583373186718</v>
+        <v>0.7359357237643849</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>1.043325465387227</v>
       </c>
       <c r="G23">
-        <v>0.0006765434037575412</v>
+        <v>0.002302840664474282</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933554</v>
+        <v>0.4339788619097575</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>2.069158297353852</v>
       </c>
       <c r="O23">
-        <v>10.8730831447894</v>
+        <v>3.449550766766095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819178159</v>
+        <v>0.3007601869820746</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009925793883118317</v>
+        <v>0.001981339670157567</v>
       </c>
       <c r="E24">
-        <v>2.447414342894518</v>
+        <v>0.6299677408469222</v>
       </c>
       <c r="F24">
-        <v>2.710038836878795</v>
+        <v>0.927746279284861</v>
       </c>
       <c r="G24">
-        <v>0.0006901575004876097</v>
+        <v>0.002309956869657329</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.62593594841114</v>
+        <v>0.4130784242511751</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002339</v>
+        <v>1.883982043575116</v>
       </c>
       <c r="O24">
-        <v>9.076028865477895</v>
+        <v>3.06310614965065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602583066</v>
+        <v>0.2519980490937996</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202643295</v>
+        <v>0.00162346534227531</v>
       </c>
       <c r="E25">
-        <v>1.925385879019359</v>
+        <v>0.5165662124021679</v>
       </c>
       <c r="F25">
-        <v>2.168159383477587</v>
+        <v>0.804951376280016</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891824946</v>
+        <v>0.002318185404700003</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376977</v>
+        <v>0.3912191043998732</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830697027</v>
+        <v>1.684892220676318</v>
       </c>
       <c r="O25">
-        <v>7.252194421940487</v>
+        <v>2.652501122830984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159311196958242</v>
+        <v>0.5793654039439957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00136281687266937</v>
+        <v>0.005790763808356303</v>
       </c>
       <c r="E2">
-        <v>0.4336984297763706</v>
+        <v>1.567431669290599</v>
       </c>
       <c r="F2">
-        <v>0.7160575709075232</v>
+        <v>1.788824380448091</v>
       </c>
       <c r="G2">
-        <v>0.002324725457951165</v>
+        <v>0.0007158969820412124</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3757315010515043</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538965158849294</v>
+        <v>3.037635430282705</v>
       </c>
       <c r="O2">
-        <v>2.355210718842727</v>
+        <v>5.977551973917741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1913949238933697</v>
+        <v>0.5052132088299288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001187382742090293</v>
+        <v>0.004810053280085214</v>
       </c>
       <c r="E3">
-        <v>0.3778594790115903</v>
+        <v>1.336160509687247</v>
       </c>
       <c r="F3">
-        <v>0.6567163053088905</v>
+        <v>1.540579415516163</v>
       </c>
       <c r="G3">
-        <v>0.002329461130050568</v>
+        <v>0.000723538520274197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3656238581545637</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.440536212657179</v>
+        <v>2.737299696658539</v>
       </c>
       <c r="O3">
-        <v>2.156718067768907</v>
+        <v>5.144303722186692</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1762869034279646</v>
+        <v>0.4595565776571533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001080080274057593</v>
+        <v>0.004246805412787324</v>
       </c>
       <c r="E4">
-        <v>0.3437100912600357</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>0.6207120828670867</v>
+        <v>1.39156792097431</v>
       </c>
       <c r="G4">
-        <v>0.002332519531335734</v>
+        <v>0.000728332473791079</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3596127975951688</v>
+        <v>0.4362154386400974</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.380350891855613</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
-        <v>2.036265997455075</v>
+        <v>4.64447396529016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1701201473106835</v>
+        <v>0.4409186727193486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001036432189167158</v>
+        <v>0.004025310140480798</v>
       </c>
       <c r="E5">
-        <v>0.329825076174572</v>
+        <v>1.14309955668044</v>
       </c>
       <c r="F5">
-        <v>0.6061468742205847</v>
+        <v>1.33157839699696</v>
       </c>
       <c r="G5">
-        <v>0.002333803886885216</v>
+        <v>0.0007303138689011546</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3572128864359954</v>
+        <v>0.4272251559504028</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.355891405433653</v>
+        <v>2.478069448651866</v>
       </c>
       <c r="O5">
-        <v>1.987532592803802</v>
+        <v>4.443320970959121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690955695415823</v>
+        <v>0.4378218885601228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001029188458627317</v>
+        <v>0.003988969621548932</v>
       </c>
       <c r="E6">
-        <v>0.3275212721868144</v>
+        <v>1.133970667797598</v>
       </c>
       <c r="F6">
-        <v>0.6037347334826251</v>
+        <v>1.3216581183557</v>
       </c>
       <c r="G6">
-        <v>0.002334019454337199</v>
+        <v>0.0007306446175804783</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3568173988915788</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.351834048475041</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
-        <v>1.979461519004303</v>
+        <v>4.410060780376682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1762037765295901</v>
+        <v>0.459305352421552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001079491335964633</v>
+        <v>0.004243787861199166</v>
       </c>
       <c r="E7">
-        <v>0.3435227109891912</v>
+        <v>1.19762002231144</v>
       </c>
       <c r="F7">
-        <v>0.6205152211821883</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.002332536698358234</v>
+        <v>0.0007283590801211284</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3595802297560198</v>
+        <v>0.4360939092484273</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38002074861987</v>
+        <v>2.552074523768539</v>
       </c>
       <c r="O7">
-        <v>2.035607345351195</v>
+        <v>4.641751433936349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2074802658001431</v>
+        <v>0.5538236746774885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001302225393729373</v>
+        <v>0.005443401231106648</v>
       </c>
       <c r="E8">
-        <v>0.4144150822294819</v>
+        <v>1.486702222600101</v>
       </c>
       <c r="F8">
-        <v>0.6955060775010651</v>
+        <v>1.702442448580101</v>
       </c>
       <c r="G8">
-        <v>0.002326327130626193</v>
+        <v>0.0007185119885717572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3722062484302811</v>
+        <v>0.4824132112798409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.504976964632107</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
-        <v>2.286471316272696</v>
+        <v>5.687526064025633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2684501888315936</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001743495443395915</v>
+        <v>0.008199630958650062</v>
       </c>
       <c r="E9">
-        <v>0.5546583365363915</v>
+        <v>2.096339606710956</v>
       </c>
       <c r="F9">
-        <v>0.8460728912957052</v>
+        <v>2.347128541868827</v>
       </c>
       <c r="G9">
-        <v>0.002315339238254839</v>
+        <v>0.0006998995818340164</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3984893586955494</v>
+        <v>0.5754683679897212</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.751860150726543</v>
+        <v>3.68456202206653</v>
       </c>
       <c r="O9">
-        <v>2.79001036887513</v>
+        <v>7.854162298617837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3129948669844396</v>
+        <v>0.8731587267203054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002072145766488731</v>
+        <v>0.01063539081218323</v>
       </c>
       <c r="E10">
-        <v>0.658652049917535</v>
+        <v>2.586060833366659</v>
       </c>
       <c r="F10">
-        <v>0.9589651656520459</v>
+        <v>2.851605898883406</v>
       </c>
       <c r="G10">
-        <v>0.002307982165642218</v>
+        <v>0.0006864679270406255</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4186982167615625</v>
+        <v>0.6452217692004893</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.93419659562025</v>
+        <v>4.236894622658639</v>
       </c>
       <c r="O10">
-        <v>3.167490004210322</v>
+        <v>9.553113749089505</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.33319936175468</v>
+        <v>0.9344599874919481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002223006803760086</v>
+        <v>0.01188174520348895</v>
       </c>
       <c r="E11">
-        <v>0.7062161564137739</v>
+        <v>2.822475958477014</v>
       </c>
       <c r="F11">
-        <v>1.010845266279489</v>
+        <v>3.090660193508597</v>
       </c>
       <c r="G11">
-        <v>0.002304788697644411</v>
+        <v>0.0006803599164443492</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4280806917633839</v>
+        <v>0.6772639329326324</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.017317443662478</v>
+        <v>4.488382904391415</v>
       </c>
       <c r="O11">
-        <v>3.340953389518518</v>
+        <v>10.35932114213165</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3408412057247006</v>
+        <v>0.9576618370865049</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002280360919026947</v>
+        <v>0.01237899073032267</v>
       </c>
       <c r="E12">
-        <v>0.7242680764979781</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>1.03056856590527</v>
+        <v>3.182852286963396</v>
       </c>
       <c r="G12">
-        <v>0.00230360130780261</v>
+        <v>0.0006780420885285025</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4316602591565939</v>
+        <v>0.6894428311920606</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.048815004509549</v>
+        <v>4.583648715502079</v>
       </c>
       <c r="O12">
-        <v>3.406898250946483</v>
+        <v>10.6704386515147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3391958157679937</v>
+        <v>0.9526653991386809</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002267998111934233</v>
+        <v>0.01227067534359705</v>
       </c>
       <c r="E13">
-        <v>0.720378418342051</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>1.026317325067765</v>
+        <v>3.16291765598308</v>
       </c>
       <c r="G13">
-        <v>0.00230385606152078</v>
+        <v>0.0006785415834695837</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4308881605543888</v>
+        <v>0.6868178671706033</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.042030543333738</v>
+        <v>4.563130066384986</v>
       </c>
       <c r="O13">
-        <v>3.392684256368284</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3338282482071406</v>
+        <v>0.9363690428265272</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.00222772064371668</v>
+        <v>0.01192211160203982</v>
       </c>
       <c r="E14">
-        <v>0.7077004683360144</v>
+        <v>2.829990385389266</v>
       </c>
       <c r="F14">
-        <v>1.012466350817789</v>
+        <v>3.098209602540265</v>
       </c>
       <c r="G14">
-        <v>0.002304690571907265</v>
+        <v>0.000680169357895933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4283746547068787</v>
+        <v>0.6782649886334866</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.019908357050213</v>
+        <v>4.496219825738564</v>
       </c>
       <c r="O14">
-        <v>3.346373501059304</v>
+        <v>10.38479363018212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3305392456628908</v>
+        <v>0.9263855807037373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002203079946879072</v>
+        <v>0.01171208091425058</v>
       </c>
       <c r="E15">
-        <v>0.6999402271471666</v>
+        <v>2.790797357017937</v>
       </c>
       <c r="F15">
-        <v>1.003992371776604</v>
+        <v>3.058800812428103</v>
       </c>
       <c r="G15">
-        <v>0.002305204582768017</v>
+        <v>0.0006811656135376502</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4268385096919047</v>
+        <v>0.6730320097669491</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006360570313291</v>
+        <v>4.455239622433339</v>
       </c>
       <c r="O15">
-        <v>3.318040639829917</v>
+        <v>10.25183258971805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3116732098856971</v>
+        <v>0.8691508517120781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002062316590961899</v>
+        <v>0.01055715331146345</v>
       </c>
       <c r="E16">
-        <v>0.655549089093725</v>
+        <v>2.57092413298578</v>
       </c>
       <c r="F16">
-        <v>0.9555854069586189</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.002308193939223566</v>
+        <v>0.0006868667237534292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4180888088535895</v>
+        <v>0.643134037803712</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.928767661017872</v>
+        <v>4.220463849171011</v>
       </c>
       <c r="O16">
-        <v>3.15618949106215</v>
+        <v>9.501180815391137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3000838993125114</v>
+        <v>0.8340171836811408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001976332213386556</v>
+        <v>0.009887510818483491</v>
       </c>
       <c r="E17">
-        <v>0.6283848123191405</v>
+        <v>2.43984551765115</v>
       </c>
       <c r="F17">
-        <v>0.9260251098173171</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.002310066979291825</v>
+        <v>0.0006903613416013465</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4127692216154415</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.88120914429345</v>
+        <v>4.076494888478607</v>
       </c>
       <c r="O17">
-        <v>3.057351167739682</v>
+        <v>9.049894410862862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2934125106850161</v>
+        <v>0.8138007528253866</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001927002019733948</v>
+        <v>0.009514980397314687</v>
       </c>
       <c r="E18">
-        <v>0.6127846016899383</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>0.9090720897889923</v>
+        <v>2.626135773823876</v>
       </c>
       <c r="G18">
-        <v>0.00231115873986465</v>
+        <v>0.0006923719131902085</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4097273953840173</v>
+        <v>0.6143983206426</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.85387144156806</v>
+        <v>3.993709333444514</v>
       </c>
       <c r="O18">
-        <v>3.000665896692624</v>
+        <v>8.793393365344173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2911527646049308</v>
+        <v>0.8069543263249557</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001910320321501402</v>
+        <v>0.009390873476403883</v>
       </c>
       <c r="E19">
-        <v>0.6075066487272522</v>
+        <v>2.34079917854109</v>
       </c>
       <c r="F19">
-        <v>0.9033404933890949</v>
+        <v>2.600497178597308</v>
       </c>
       <c r="G19">
-        <v>0.002311530874994851</v>
+        <v>0.0006930528958905002</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4087005711172083</v>
+        <v>0.6108569212606056</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.844618345498787</v>
+        <v>3.965683291769551</v>
       </c>
       <c r="O19">
-        <v>2.981501180670932</v>
+        <v>8.707044974998837</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.30131817768563</v>
+        <v>0.8377580912798805</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001985472159233836</v>
+        <v>0.0099574532787301</v>
       </c>
       <c r="E20">
-        <v>0.6312739907922804</v>
+        <v>2.453666606034659</v>
       </c>
       <c r="F20">
-        <v>0.9291667394193155</v>
+        <v>2.71644442473513</v>
       </c>
       <c r="G20">
-        <v>0.002309866097720437</v>
+        <v>0.000689989309912319</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4133336567285681</v>
+        <v>0.626813520576917</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.886270128092008</v>
+        <v>4.091818400229045</v>
       </c>
       <c r="O20">
-        <v>3.067855660969485</v>
+        <v>9.097610356594373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3354050867557703</v>
+        <v>0.9411559823937807</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002239544716820419</v>
+        <v>0.01202375752425056</v>
       </c>
       <c r="E21">
-        <v>0.7114231643078455</v>
+        <v>2.848874331676171</v>
       </c>
       <c r="F21">
-        <v>1.016532600446681</v>
+        <v>3.117168067285291</v>
       </c>
       <c r="G21">
-        <v>0.002304444862530205</v>
+        <v>0.0006796914192121364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.429112214418673</v>
+        <v>0.6807759445216846</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.026405625114307</v>
+        <v>4.515872099351611</v>
       </c>
       <c r="O21">
-        <v>3.359969033151685</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3576291578720543</v>
+        <v>1.008665481205611</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002406930069309254</v>
+        <v>0.01352510471006596</v>
       </c>
       <c r="E22">
-        <v>0.7640425772889614</v>
+        <v>3.121746484625959</v>
       </c>
       <c r="F22">
-        <v>1.074083505283141</v>
+        <v>3.388961998781213</v>
       </c>
       <c r="G22">
-        <v>0.002301029401395692</v>
+        <v>0.0006729296473788289</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4395793436413911</v>
+        <v>0.71630741384309</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.118115898853603</v>
+        <v>4.793206235152638</v>
       </c>
       <c r="O22">
-        <v>3.552389396738079</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3457728835226135</v>
+        <v>0.9726400862101627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00231746072000405</v>
+        <v>0.0127078465439574</v>
       </c>
       <c r="E23">
-        <v>0.7359357237643849</v>
+        <v>2.974583373186761</v>
       </c>
       <c r="F23">
-        <v>1.043325465387227</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.002302840664474282</v>
+        <v>0.0006765434037532156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4339788619097575</v>
+        <v>0.6973192642933483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.069158297353852</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
-        <v>3.449550766766095</v>
+        <v>10.87308314478946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3007601869820746</v>
+        <v>0.8360668819178159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001981339670157567</v>
+        <v>0.009925793883327927</v>
       </c>
       <c r="E24">
-        <v>0.6299677408469222</v>
+        <v>2.447414342894504</v>
       </c>
       <c r="F24">
-        <v>0.927746279284861</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.002309956869657329</v>
+        <v>0.0006901575005401294</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4130784242511751</v>
+        <v>0.6259359484111684</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.883982043575116</v>
+        <v>4.084890690002226</v>
       </c>
       <c r="O24">
-        <v>3.06310614965065</v>
+        <v>9.076028865477952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2519980490937996</v>
+        <v>0.6884222602582781</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00162346534227531</v>
+        <v>0.007395808202632637</v>
       </c>
       <c r="E25">
-        <v>0.5165662124021679</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>0.804951376280016</v>
+        <v>2.168159383477573</v>
       </c>
       <c r="G25">
-        <v>0.002318185404700003</v>
+        <v>0.0007048771891826179</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3912191043998732</v>
+        <v>0.5500536194376622</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684892220676318</v>
+        <v>3.481366830697027</v>
       </c>
       <c r="O25">
-        <v>2.652501122830984</v>
+        <v>7.25219442194043</v>
       </c>
     </row>
   </sheetData>
